--- a/medicine/Enfance/Baby_Folies/Baby_Folies.xlsx
+++ b/medicine/Enfance/Baby_Folies/Baby_Folies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Baby folies est une série télévisée d'animation française au style enfantin créée par Serge Rosenzweig et Claude Prothée, diffusée à partir du 29 novembre 1993 sur Canal+, et en 1995 sur France 2.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aventures d'une ville de bébés : Baby Cities, où les bébés vivent avant leur naissance et leur livraison par les cigognes.
 </t>
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bogard : Détective en imperméable, ayant pour ennemi juré Scrogneugneu et pour amour secret Baby Lauren. Il rêve de pouvoir emmener cette dernière sur son tricycle.
 Scrogneugneu : Savant fou ayant pour ultime but de devenir "père noël à la place du père noël".
@@ -586,7 +602,9 @@
           <t>Voix françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Marine Boiron : Executive baby
 Pierre Laurent : Al Papone / Bébé Oscar / Bébé M. le maire
@@ -619,7 +637,9 @@
           <t>Fiche Technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nom original : Baby Folies
 Réalisation : Denis Olivieri
@@ -655,7 +675,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tétine de la fortune
